--- a/static/download/2021/RP3_ERT_ATFM_2021_Jan_Apr.xlsx
+++ b/static/download/2021/RP3_ERT_ATFM_2021_Jan_Apr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="158">
   <si>
     <t>Data source</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Period: JAN-APR</t>
   </si>
   <si>
-    <t>SES Area</t>
+    <t>SES Area (RP3)</t>
   </si>
   <si>
     <t>Area</t>
@@ -74,7 +74,7 @@
     <t>% of flights with en-route ATFM delay greater than 15 min</t>
   </si>
   <si>
-    <t>SES area</t>
+    <t>SES area (RP3)</t>
   </si>
   <si>
     <t xml:space="preserve">2015 </t>
@@ -389,93 +389,93 @@
     <t>Entity</t>
   </si>
   <si>
+    <t>ANS CR</t>
+  </si>
+  <si>
     <t>Austro Control</t>
   </si>
   <si>
+    <t>Avinor</t>
+  </si>
+  <si>
+    <t>BULATSA</t>
+  </si>
+  <si>
+    <t>Croatia Control</t>
+  </si>
+  <si>
+    <t>DCAC Cyprus</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>DSNA</t>
+  </si>
+  <si>
+    <t>EANS</t>
+  </si>
+  <si>
+    <t>ENAIRE</t>
+  </si>
+  <si>
+    <t>ENAV</t>
+  </si>
+  <si>
+    <t>Fintraffic ANS</t>
+  </si>
+  <si>
+    <t>HCAA</t>
+  </si>
+  <si>
+    <t>HungaroControl (EC)</t>
+  </si>
+  <si>
+    <t>IAA</t>
+  </si>
+  <si>
+    <t>LFV</t>
+  </si>
+  <si>
+    <t>LGS</t>
+  </si>
+  <si>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>LVNL</t>
+  </si>
+  <si>
+    <t>Maastricht UAC</t>
+  </si>
+  <si>
+    <t>MATS</t>
+  </si>
+  <si>
+    <t>NAV Portugal</t>
+  </si>
+  <si>
+    <t>NAVIAIR</t>
+  </si>
+  <si>
+    <t>Oro navigacija</t>
+  </si>
+  <si>
+    <t>PANSA</t>
+  </si>
+  <si>
+    <t>ROMATSA</t>
+  </si>
+  <si>
     <t>skeyes</t>
   </si>
   <si>
-    <t>BULATSA</t>
-  </si>
-  <si>
-    <t>Croatia Control</t>
-  </si>
-  <si>
-    <t>DCAC Cyprus</t>
-  </si>
-  <si>
-    <t>ANS CR</t>
-  </si>
-  <si>
-    <t>NAVIAIR</t>
-  </si>
-  <si>
-    <t>EANS</t>
-  </si>
-  <si>
-    <t>Fintraffic ANS</t>
-  </si>
-  <si>
-    <t>DSNA</t>
-  </si>
-  <si>
-    <t>DFS</t>
-  </si>
-  <si>
-    <t>HCAA</t>
-  </si>
-  <si>
-    <t>HungaroControl (EC)</t>
-  </si>
-  <si>
-    <t>IAA</t>
-  </si>
-  <si>
-    <t>ENAV</t>
-  </si>
-  <si>
-    <t>LGS</t>
-  </si>
-  <si>
-    <t>Oro navigacija</t>
-  </si>
-  <si>
-    <t>MATS</t>
-  </si>
-  <si>
-    <t>LVNL</t>
-  </si>
-  <si>
-    <t>Avinor</t>
-  </si>
-  <si>
-    <t>PANSA</t>
-  </si>
-  <si>
-    <t>NAV Portugal</t>
-  </si>
-  <si>
-    <t>ROMATSA</t>
-  </si>
-  <si>
-    <t>LPS</t>
+    <t>Skyguide</t>
   </si>
   <si>
     <t>Slovenia Control</t>
   </si>
   <si>
-    <t>ENAIRE</t>
-  </si>
-  <si>
-    <t>LFV</t>
-  </si>
-  <si>
-    <t>Skyguide</t>
-  </si>
-  <si>
-    <t>NATS (Continental)</t>
-  </si>
-  <si>
     <t>Change date</t>
   </si>
   <si>
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UK removed from SES area</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1138,7 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1140,11 +1146,11 @@
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -1228,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="10">
-        <v>44328.0</v>
+        <v>44351.0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1314,21 +1320,21 @@
       </c>
       <c r="C6" s="31">
         <f t="shared" ref="C6:C12" si="1">E6/D6</f>
-        <v>0.3957695385</v>
+        <v>0.4134933472</v>
       </c>
       <c r="D6" s="32">
-        <v>2719656.0</v>
+        <v>2584859.0</v>
       </c>
       <c r="E6" s="33">
-        <v>1076357.0</v>
+        <v>1068822.0</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G12" si="2">C6-F6</f>
-        <v>0.3957695385</v>
+        <v>0.4134933472</v>
       </c>
       <c r="H6" s="36">
-        <v>0.0081</v>
+        <v>0.0085</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
@@ -1340,21 +1346,21 @@
       </c>
       <c r="C7" s="31">
         <f t="shared" si="1"/>
-        <v>0.6758612788</v>
+        <v>0.651890429</v>
       </c>
       <c r="D7" s="38">
-        <v>2792940.0</v>
+        <v>2660375.0</v>
       </c>
       <c r="E7" s="39">
-        <v>1887640.0</v>
+        <v>1734273.0</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="41">
         <f t="shared" si="2"/>
-        <v>0.6758612788</v>
+        <v>0.651890429</v>
       </c>
       <c r="H7" s="36">
-        <v>0.0146</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
@@ -1366,21 +1372,21 @@
       </c>
       <c r="C8" s="31">
         <f t="shared" si="1"/>
-        <v>0.4292204687</v>
+        <v>0.4434406428</v>
       </c>
       <c r="D8" s="38">
-        <v>2877216.0</v>
+        <v>2745673.0</v>
       </c>
       <c r="E8" s="39">
-        <v>1234960.0</v>
+        <v>1217543.0</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="41">
         <f t="shared" si="2"/>
-        <v>0.4292204687</v>
+        <v>0.4434406428</v>
       </c>
       <c r="H8" s="36">
-        <v>0.0095</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
@@ -1392,21 +1398,21 @@
       </c>
       <c r="C9" s="31">
         <f t="shared" si="1"/>
-        <v>0.6169712109</v>
+        <v>0.5797732788</v>
       </c>
       <c r="D9" s="38">
-        <v>2974390.0</v>
+        <v>2843051.0</v>
       </c>
       <c r="E9" s="39">
-        <v>1835113.0</v>
+        <v>1648325.0</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="41">
         <f t="shared" si="2"/>
-        <v>0.6169712109</v>
+        <v>0.5797732788</v>
       </c>
       <c r="H9" s="36">
-        <v>0.0133</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
@@ -1418,21 +1424,21 @@
       </c>
       <c r="C10" s="31">
         <f t="shared" si="1"/>
-        <v>0.7678057415</v>
+        <v>0.7883926082</v>
       </c>
       <c r="D10" s="38">
-        <v>3053004.0</v>
+        <v>2927152.0</v>
       </c>
       <c r="E10" s="39">
-        <v>2344114.0</v>
+        <v>2307745.0</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="41">
         <f t="shared" si="2"/>
-        <v>0.7678057415</v>
+        <v>0.7883926082</v>
       </c>
       <c r="H10" s="36">
-        <v>0.0176</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
@@ -1444,23 +1450,23 @@
       </c>
       <c r="C11" s="31">
         <f t="shared" si="1"/>
-        <v>0.7855136376</v>
+        <v>0.8089197609</v>
       </c>
       <c r="D11" s="38">
-        <v>1991404.0</v>
+        <v>1908235.0</v>
       </c>
       <c r="E11" s="39">
-        <v>1564275.0</v>
+        <v>1543609.0</v>
       </c>
       <c r="F11" s="42">
         <v>0.9</v>
       </c>
       <c r="G11" s="41">
         <f t="shared" si="2"/>
-        <v>-0.1144863624</v>
+        <v>-0.09108023907</v>
       </c>
       <c r="H11" s="36">
-        <v>0.0158</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
@@ -1472,10 +1478,10 @@
       </c>
       <c r="C12" s="31">
         <f t="shared" si="1"/>
-        <v>0.02389533647</v>
+        <v>0.02477905295</v>
       </c>
       <c r="D12" s="38">
-        <v>1043802.0</v>
+        <v>1006576.0</v>
       </c>
       <c r="E12" s="39">
         <v>24942.0</v>
@@ -1485,10 +1491,10 @@
       </c>
       <c r="G12" s="41">
         <f t="shared" si="2"/>
-        <v>-0.8761046635</v>
+        <v>-0.8752209471</v>
       </c>
       <c r="H12" s="36">
-        <v>5.0E-4</v>
+        <v>6.0E-4</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
@@ -1594,7 +1600,7 @@
       </c>
       <c r="B2" s="10">
         <f>ERT_ATFM_YY!B2</f>
-        <v>44328</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1660,13 +1666,13 @@
       </c>
       <c r="B6" s="62">
         <f t="shared" ref="B6:B33" si="1">D6/C6</f>
-        <v>0.3901494621</v>
+        <v>0.4041344334</v>
       </c>
       <c r="C6" s="63">
-        <v>730620.0</v>
+        <v>699975.0</v>
       </c>
       <c r="D6" s="64">
-        <v>285051.0</v>
+        <v>282884.0</v>
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="66">
@@ -1679,13 +1685,13 @@
       </c>
       <c r="B7" s="67">
         <f t="shared" si="1"/>
-        <v>0.489219714</v>
+        <v>0.4933644225</v>
       </c>
       <c r="C7" s="68">
-        <v>686902.0</v>
+        <v>657893.0</v>
       </c>
       <c r="D7" s="69">
-        <v>336046.0</v>
+        <v>324581.0</v>
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="66">
@@ -1698,13 +1704,13 @@
       </c>
       <c r="B8" s="67">
         <f t="shared" si="1"/>
-        <v>0.9170366662</v>
+        <v>1.012783337</v>
       </c>
       <c r="C8" s="68">
-        <v>786938.0</v>
+        <v>753872.0</v>
       </c>
       <c r="D8" s="69">
-        <v>721651.0</v>
+        <v>763509.0</v>
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="66">
@@ -1717,13 +1723,13 @@
       </c>
       <c r="B9" s="67">
         <f t="shared" si="1"/>
-        <v>1.136868565</v>
+        <v>1.148831511</v>
       </c>
       <c r="C9" s="69">
-        <v>848544.0</v>
+        <v>815412.0</v>
       </c>
       <c r="D9" s="69">
-        <v>964683.0</v>
+        <v>936771.0</v>
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="66">
@@ -1736,13 +1742,13 @@
       </c>
       <c r="B10" s="67">
         <f t="shared" si="1"/>
-        <v>1.858636324</v>
+        <v>1.914318462</v>
       </c>
       <c r="C10" s="69">
-        <v>921729.0</v>
+        <v>886422.0</v>
       </c>
       <c r="D10" s="69">
-        <v>1713159.0</v>
+        <v>1696894.0</v>
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="66">
@@ -1755,13 +1761,13 @@
       </c>
       <c r="B11" s="67">
         <f t="shared" si="1"/>
-        <v>2.95823873</v>
+        <v>2.988936024</v>
       </c>
       <c r="C11" s="69">
-        <v>966757.0</v>
+        <v>932305.0</v>
       </c>
       <c r="D11" s="69">
-        <v>2859898.0</v>
+        <v>2786600.0</v>
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="66">
@@ -1774,13 +1780,13 @@
       </c>
       <c r="B12" s="67">
         <f t="shared" si="1"/>
-        <v>3.365783825</v>
+        <v>3.369078543</v>
       </c>
       <c r="C12" s="69">
-        <v>1018454.0</v>
+        <v>982444.0</v>
       </c>
       <c r="D12" s="69">
-        <v>3427896.0</v>
+        <v>3309931.0</v>
       </c>
       <c r="E12" s="70" t="s">
         <v>8</v>
@@ -1795,13 +1801,13 @@
       </c>
       <c r="B13" s="67">
         <f t="shared" si="1"/>
-        <v>2.844603247</v>
+        <v>2.808366039</v>
       </c>
       <c r="C13" s="69">
-        <v>1005864.0</v>
+        <v>970256.0</v>
       </c>
       <c r="D13" s="69">
-        <v>2861284.0</v>
+        <v>2724834.0</v>
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="66">
@@ -1814,13 +1820,13 @@
       </c>
       <c r="B14" s="67">
         <f t="shared" si="1"/>
-        <v>1.906295215</v>
+        <v>1.895806678</v>
       </c>
       <c r="C14" s="69">
-        <v>966909.0</v>
+        <v>932411.0</v>
       </c>
       <c r="D14" s="69">
-        <v>1843214.0</v>
+        <v>1767671.0</v>
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="66">
@@ -1833,13 +1839,13 @@
       </c>
       <c r="B15" s="67">
         <f t="shared" si="1"/>
-        <v>1.062533992</v>
+        <v>1.049598995</v>
       </c>
       <c r="C15" s="69">
-        <v>915646.0</v>
+        <v>880038.0</v>
       </c>
       <c r="D15" s="69">
-        <v>972905.0</v>
+        <v>923687.0</v>
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="66">
@@ -1852,13 +1858,13 @@
       </c>
       <c r="B16" s="67">
         <f t="shared" si="1"/>
-        <v>0.3389862554</v>
+        <v>0.3515899995</v>
       </c>
       <c r="C16" s="69">
-        <v>745750.0</v>
+        <v>713365.0</v>
       </c>
       <c r="D16" s="69">
-        <v>252799.0</v>
+        <v>250812.0</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="66">
@@ -1871,13 +1877,13 @@
       </c>
       <c r="B17" s="71">
         <f t="shared" si="1"/>
-        <v>1.268254153</v>
+        <v>1.297685975</v>
       </c>
       <c r="C17" s="72">
-        <v>739996.0</v>
+        <v>709543.0</v>
       </c>
       <c r="D17" s="72">
-        <v>938503.0</v>
+        <v>920764.0</v>
       </c>
       <c r="E17" s="73"/>
       <c r="F17" s="66">
@@ -1890,17 +1896,17 @@
       </c>
       <c r="B18" s="62">
         <f t="shared" si="1"/>
-        <v>0.5040012611</v>
+        <v>0.5179546649</v>
       </c>
       <c r="C18" s="64">
-        <v>729520.0</v>
+        <v>700208.0</v>
       </c>
       <c r="D18" s="64">
-        <v>367679.0</v>
+        <v>362676.0</v>
       </c>
       <c r="E18" s="74">
         <f>D18/C18</f>
-        <v>0.5040012611</v>
+        <v>0.5179546649</v>
       </c>
       <c r="F18" s="75">
         <v>1.0</v>
@@ -1912,17 +1918,17 @@
       </c>
       <c r="B19" s="67">
         <f t="shared" si="1"/>
-        <v>0.858693072</v>
+        <v>0.8578355891</v>
       </c>
       <c r="C19" s="69">
-        <v>695111.0</v>
+        <v>666306.0</v>
       </c>
       <c r="D19" s="69">
-        <v>596887.0</v>
+        <v>571581.0</v>
       </c>
       <c r="E19" s="67">
         <f t="shared" ref="E19:E29" si="2">sum(D$18:D19)/sum(C$18:C19)</f>
-        <v>0.6770637449</v>
+        <v>0.6836790549</v>
       </c>
       <c r="F19" s="76">
         <v>1.0</v>
@@ -1934,17 +1940,17 @@
       </c>
       <c r="B20" s="67">
         <f t="shared" si="1"/>
-        <v>1.323814864</v>
+        <v>1.374425536</v>
       </c>
       <c r="C20" s="69">
-        <v>463660.0</v>
+        <v>443239.0</v>
       </c>
       <c r="D20" s="69">
-        <v>613800.0</v>
+        <v>609199.0</v>
       </c>
       <c r="E20" s="67">
         <f t="shared" si="2"/>
-        <v>0.8358701069</v>
+        <v>0.8528545056</v>
       </c>
       <c r="F20" s="76">
         <v>1.0</v>
@@ -1956,17 +1962,17 @@
       </c>
       <c r="B21" s="67">
         <f t="shared" si="1"/>
-        <v>0.003404032469</v>
+        <v>0.001553583396</v>
       </c>
       <c r="C21" s="69">
-        <v>103113.0</v>
+        <v>98482.0</v>
       </c>
       <c r="D21" s="69">
-        <v>351.0</v>
+        <v>153.0</v>
       </c>
       <c r="E21" s="67">
         <f t="shared" si="2"/>
-        <v>0.7927658074</v>
+        <v>0.8089197609</v>
       </c>
       <c r="F21" s="76">
         <v>1.0</v>
@@ -1978,17 +1984,17 @@
       </c>
       <c r="B22" s="67">
         <f t="shared" si="1"/>
-        <v>0.0299100371</v>
+        <v>0.02419386359</v>
       </c>
       <c r="C22" s="69">
-        <v>133166.0</v>
+        <v>127925.0</v>
       </c>
       <c r="D22" s="69">
-        <v>3983.0</v>
+        <v>3095.0</v>
       </c>
       <c r="E22" s="67">
         <f t="shared" si="2"/>
-        <v>0.744950743</v>
+        <v>0.7596181047</v>
       </c>
       <c r="F22" s="76">
         <v>1.0</v>
@@ -2000,17 +2006,17 @@
       </c>
       <c r="B23" s="67">
         <f t="shared" si="1"/>
-        <v>0.01775360153</v>
+        <v>0.01580281065</v>
       </c>
       <c r="C23" s="69">
-        <v>200748.0</v>
+        <v>193763.0</v>
       </c>
       <c r="D23" s="69">
-        <v>3564.0</v>
+        <v>3062.0</v>
       </c>
       <c r="E23" s="67">
         <f t="shared" si="2"/>
-        <v>0.6821707827</v>
+        <v>0.6949863291</v>
       </c>
       <c r="F23" s="76">
         <v>1.0</v>
@@ -2022,17 +2028,17 @@
       </c>
       <c r="B24" s="67">
         <f t="shared" si="1"/>
-        <v>0.01781245473</v>
+        <v>0.01835972393</v>
       </c>
       <c r="C24" s="69">
-        <v>400394.0</v>
+        <v>388459.0</v>
       </c>
       <c r="D24" s="69">
         <v>7132.0</v>
       </c>
       <c r="E24" s="67">
         <f t="shared" si="2"/>
-        <v>0.5845797355</v>
+        <v>0.5946030793</v>
       </c>
       <c r="F24" s="76">
         <v>1.0</v>
@@ -2044,17 +2050,17 @@
       </c>
       <c r="B25" s="67">
         <f t="shared" si="1"/>
-        <v>0.01764158179</v>
+        <v>0.01736281183</v>
       </c>
       <c r="C25" s="69">
-        <v>487598.0</v>
+        <v>473656.0</v>
       </c>
       <c r="D25" s="69">
-        <v>8602.0</v>
+        <v>8224.0</v>
       </c>
       <c r="E25" s="67">
         <f t="shared" si="2"/>
-        <v>0.4985507156</v>
+        <v>0.5061781259</v>
       </c>
       <c r="F25" s="76">
         <v>1.0</v>
@@ -2066,17 +2072,17 @@
       </c>
       <c r="B26" s="67">
         <f t="shared" si="1"/>
-        <v>0.007893165434</v>
+        <v>0.007348057912</v>
       </c>
       <c r="C26" s="69">
-        <v>437087.0</v>
+        <v>421608.0</v>
       </c>
       <c r="D26" s="69">
-        <v>3450.0</v>
+        <v>3098.0</v>
       </c>
       <c r="E26" s="67">
         <f t="shared" si="2"/>
-        <v>0.4398009312</v>
+        <v>0.4463227087</v>
       </c>
       <c r="F26" s="76">
         <v>1.0</v>
@@ -2088,17 +2094,17 @@
       </c>
       <c r="B27" s="67">
         <f t="shared" si="1"/>
-        <v>0.02614268502</v>
+        <v>0.0254128384</v>
       </c>
       <c r="C27" s="69">
-        <v>390090.0</v>
+        <v>374299.0</v>
       </c>
       <c r="D27" s="69">
-        <v>10198.0</v>
+        <v>9512.0</v>
       </c>
       <c r="E27" s="67">
         <f t="shared" si="2"/>
-        <v>0.3998641748</v>
+        <v>0.405801008</v>
       </c>
       <c r="F27" s="76">
         <v>1.0</v>
@@ -2110,17 +2116,17 @@
       </c>
       <c r="B28" s="67">
         <f t="shared" si="1"/>
-        <v>0.01232684026</v>
+        <v>0.01331426098</v>
       </c>
       <c r="C28" s="69">
-        <v>276551.0</v>
+        <v>265655.0</v>
       </c>
       <c r="D28" s="69">
-        <v>3409.0</v>
+        <v>3537.0</v>
       </c>
       <c r="E28" s="67">
         <f t="shared" si="2"/>
-        <v>0.3750383944</v>
+        <v>0.3806984303</v>
       </c>
       <c r="F28" s="76">
         <v>1.0</v>
@@ -2132,17 +2138,17 @@
       </c>
       <c r="B29" s="71">
         <f t="shared" si="1"/>
-        <v>0.007053501045</v>
+        <v>0.005765633256</v>
       </c>
       <c r="C29" s="72">
-        <v>291770.0</v>
+        <v>280108.0</v>
       </c>
       <c r="D29" s="72">
-        <v>2058.0</v>
+        <v>1615.0</v>
       </c>
       <c r="E29" s="71">
         <f t="shared" si="2"/>
-        <v>0.3517423594</v>
+        <v>0.3570113323</v>
       </c>
       <c r="F29" s="77">
         <v>1.0</v>
@@ -2154,17 +2160,17 @@
       </c>
       <c r="B30" s="62">
         <f t="shared" si="1"/>
-        <v>0.02016951721</v>
+        <v>0.02086406998</v>
       </c>
       <c r="C30" s="64">
-        <v>257319.0</v>
+        <v>248753.0</v>
       </c>
       <c r="D30" s="64">
         <v>5190.0</v>
       </c>
       <c r="E30" s="74">
         <f>D30/C30</f>
-        <v>0.02016951721</v>
+        <v>0.02086406998</v>
       </c>
       <c r="F30" s="78">
         <v>1.0</v>
@@ -2176,17 +2182,17 @@
       </c>
       <c r="B31" s="67">
         <f t="shared" si="1"/>
-        <v>0.03447422309</v>
+        <v>0.03576514533</v>
       </c>
       <c r="C31" s="69">
-        <v>222195.0</v>
+        <v>214175.0</v>
       </c>
       <c r="D31" s="69">
         <v>7660.0</v>
       </c>
       <c r="E31" s="67">
         <f t="shared" ref="E31:E33" si="3">sum(D$30:D31)/sum(C$30:C31)</f>
-        <v>0.02679796627</v>
+        <v>0.02775809629</v>
       </c>
       <c r="F31" s="76">
         <v>1.0</v>
@@ -2198,17 +2204,17 @@
       </c>
       <c r="B32" s="62">
         <f t="shared" si="1"/>
-        <v>0.02845595908</v>
+        <v>0.02954633341</v>
       </c>
       <c r="C32" s="69">
-        <v>271191.0</v>
+        <v>261183.0</v>
       </c>
       <c r="D32" s="69">
         <v>7717.0</v>
       </c>
       <c r="E32" s="67">
         <f t="shared" si="3"/>
-        <v>0.02739691357</v>
+        <v>0.02840310394</v>
       </c>
       <c r="F32" s="76">
         <v>1.0</v>
@@ -2220,17 +2226,17 @@
       </c>
       <c r="B33" s="62">
         <f t="shared" si="1"/>
-        <v>0.01492679898</v>
+        <v>0.01548864461</v>
       </c>
       <c r="C33" s="69">
-        <v>293097.0</v>
+        <v>282465.0</v>
       </c>
       <c r="D33" s="69">
         <v>4375.0</v>
       </c>
       <c r="E33" s="67">
         <f t="shared" si="3"/>
-        <v>0.02389533647</v>
+        <v>0.02477905295</v>
       </c>
       <c r="F33" s="76">
         <v>1.0</v>
@@ -2729,7 +2735,7 @@
       </c>
       <c r="B2" s="10">
         <f>ERT_ATFM_YY!B2</f>
-        <v>44328</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3013,7 +3019,7 @@
       </c>
       <c r="B2" s="10">
         <f>ERT_ATFM_YY!B2</f>
-        <v>44328</v>
+        <v>44351</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3079,18 +3085,18 @@
       </c>
       <c r="B6" s="94"/>
       <c r="C6" s="95">
-        <v>94525.0</v>
+        <v>64118.0</v>
       </c>
       <c r="D6" s="95">
-        <v>0.0</v>
+        <v>886.0</v>
       </c>
       <c r="E6" s="97">
         <f t="shared" ref="E6:E34" si="1">D6/C6</f>
-        <v>0</v>
+        <v>0.01381827256</v>
       </c>
       <c r="F6" s="94">
         <f>E6-B6</f>
-        <v>0</v>
+        <v>0.01381827256</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -3099,7 +3105,7 @@
       </c>
       <c r="B7" s="94"/>
       <c r="C7" s="95">
-        <v>64618.0</v>
+        <v>94525.0</v>
       </c>
       <c r="D7" s="95">
         <v>0.0</v>
@@ -3116,14 +3122,14 @@
       </c>
       <c r="B8" s="94"/>
       <c r="C8" s="95">
-        <v>99984.0</v>
+        <v>91806.0</v>
       </c>
       <c r="D8" s="95">
-        <v>0.0</v>
+        <v>196.0</v>
       </c>
       <c r="E8" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.002134936714</v>
       </c>
       <c r="F8" s="94"/>
     </row>
@@ -3133,7 +3139,7 @@
       </c>
       <c r="B9" s="94"/>
       <c r="C9" s="95">
-        <v>58841.0</v>
+        <v>99984.0</v>
       </c>
       <c r="D9" s="95">
         <v>0.0</v>
@@ -3150,7 +3156,7 @@
       </c>
       <c r="B10" s="94"/>
       <c r="C10" s="95">
-        <v>48352.0</v>
+        <v>58841.0</v>
       </c>
       <c r="D10" s="95">
         <v>0.0</v>
@@ -3167,14 +3173,14 @@
       </c>
       <c r="B11" s="94"/>
       <c r="C11" s="95">
-        <v>64118.0</v>
+        <v>48352.0</v>
       </c>
       <c r="D11" s="95">
-        <v>886.0</v>
+        <v>0.0</v>
       </c>
       <c r="E11" s="97">
         <f t="shared" si="1"/>
-        <v>0.01381827256</v>
+        <v>0</v>
       </c>
       <c r="F11" s="94"/>
     </row>
@@ -3184,14 +3190,14 @@
       </c>
       <c r="B12" s="94"/>
       <c r="C12" s="95">
-        <v>50743.0</v>
+        <v>283824.0</v>
       </c>
       <c r="D12" s="95">
-        <v>0.0</v>
+        <v>610.0</v>
       </c>
       <c r="E12" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.002149219234</v>
       </c>
       <c r="F12" s="94"/>
     </row>
@@ -3201,14 +3207,14 @@
       </c>
       <c r="B13" s="94"/>
       <c r="C13" s="95">
-        <v>23731.0</v>
+        <v>285525.0</v>
       </c>
       <c r="D13" s="95">
-        <v>0.0</v>
+        <v>19760.0</v>
       </c>
       <c r="E13" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.06920584887</v>
       </c>
       <c r="F13" s="94"/>
     </row>
@@ -3218,7 +3224,7 @@
       </c>
       <c r="B14" s="94"/>
       <c r="C14" s="95">
-        <v>24966.0</v>
+        <v>23731.0</v>
       </c>
       <c r="D14" s="95">
         <v>0.0</v>
@@ -3235,14 +3241,14 @@
       </c>
       <c r="B15" s="94"/>
       <c r="C15" s="95">
-        <v>285525.0</v>
+        <v>174564.0</v>
       </c>
       <c r="D15" s="95">
-        <v>19760.0</v>
+        <v>1016.0</v>
       </c>
       <c r="E15" s="97">
         <f t="shared" si="1"/>
-        <v>0.06920584887</v>
+        <v>0.005820214935</v>
       </c>
       <c r="F15" s="94"/>
     </row>
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B16" s="94"/>
       <c r="C16" s="95">
-        <v>283824.0</v>
+        <v>139520.0</v>
       </c>
       <c r="D16" s="95">
-        <v>610.0</v>
+        <v>59.0</v>
       </c>
       <c r="E16" s="97">
         <f t="shared" si="1"/>
-        <v>0.002149219234</v>
+        <v>0.0004228784404</v>
       </c>
       <c r="F16" s="94"/>
     </row>
@@ -3269,7 +3275,7 @@
       </c>
       <c r="B17" s="94"/>
       <c r="C17" s="95">
-        <v>75964.0</v>
+        <v>24966.0</v>
       </c>
       <c r="D17" s="95">
         <v>0.0</v>
@@ -3286,7 +3292,7 @@
       </c>
       <c r="B18" s="94"/>
       <c r="C18" s="95">
-        <v>80465.0</v>
+        <v>75964.0</v>
       </c>
       <c r="D18" s="95">
         <v>0.0</v>
@@ -3303,7 +3309,7 @@
       </c>
       <c r="B19" s="94"/>
       <c r="C19" s="95">
-        <v>62234.0</v>
+        <v>80465.0</v>
       </c>
       <c r="D19" s="95">
         <v>0.0</v>
@@ -3320,14 +3326,14 @@
       </c>
       <c r="B20" s="94"/>
       <c r="C20" s="95">
-        <v>139520.0</v>
+        <v>62234.0</v>
       </c>
       <c r="D20" s="95">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="97">
         <f t="shared" si="1"/>
-        <v>0.0004228784404</v>
+        <v>0</v>
       </c>
       <c r="F20" s="94"/>
     </row>
@@ -3337,7 +3343,7 @@
       </c>
       <c r="B21" s="94"/>
       <c r="C21" s="95">
-        <v>29419.0</v>
+        <v>70220.0</v>
       </c>
       <c r="D21" s="95">
         <v>0.0</v>
@@ -3354,7 +3360,7 @@
       </c>
       <c r="B22" s="94"/>
       <c r="C22" s="95">
-        <v>32580.0</v>
+        <v>29419.0</v>
       </c>
       <c r="D22" s="95">
         <v>0.0</v>
@@ -3371,7 +3377,7 @@
       </c>
       <c r="B23" s="94"/>
       <c r="C23" s="95">
-        <v>14837.0</v>
+        <v>42916.0</v>
       </c>
       <c r="D23" s="95">
         <v>0.0</v>
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B25" s="94"/>
       <c r="C25" s="95">
-        <v>91806.0</v>
+        <v>166576.0</v>
       </c>
       <c r="D25" s="95">
-        <v>196.0</v>
+        <v>61.0</v>
       </c>
       <c r="E25" s="97">
         <f t="shared" si="1"/>
-        <v>0.002134936714</v>
+        <v>0.0003661992124</v>
       </c>
       <c r="F25" s="94"/>
     </row>
@@ -3422,14 +3428,14 @@
       </c>
       <c r="B26" s="94"/>
       <c r="C26" s="95">
-        <v>80124.0</v>
+        <v>14837.0</v>
       </c>
       <c r="D26" s="95">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" s="97">
         <f t="shared" si="1"/>
-        <v>0.0005366681643</v>
+        <v>0</v>
       </c>
       <c r="F26" s="94"/>
     </row>
@@ -3456,7 +3462,7 @@
       </c>
       <c r="B28" s="94"/>
       <c r="C28" s="95">
-        <v>88231.0</v>
+        <v>50743.0</v>
       </c>
       <c r="D28" s="95">
         <v>0.0</v>
@@ -3473,7 +3479,7 @@
       </c>
       <c r="B29" s="94"/>
       <c r="C29" s="95">
-        <v>42916.0</v>
+        <v>32580.0</v>
       </c>
       <c r="D29" s="95">
         <v>0.0</v>
@@ -3490,14 +3496,14 @@
       </c>
       <c r="B30" s="94"/>
       <c r="C30" s="95">
-        <v>28130.0</v>
+        <v>80124.0</v>
       </c>
       <c r="D30" s="95">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="E30" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0005366681643</v>
       </c>
       <c r="F30" s="94"/>
     </row>
@@ -3507,14 +3513,14 @@
       </c>
       <c r="B31" s="94"/>
       <c r="C31" s="95">
-        <v>174564.0</v>
+        <v>88231.0</v>
       </c>
       <c r="D31" s="95">
-        <v>1016.0</v>
+        <v>0.0</v>
       </c>
       <c r="E31" s="97">
         <f t="shared" si="1"/>
-        <v>0.005820214935</v>
+        <v>0</v>
       </c>
       <c r="F31" s="94"/>
     </row>
@@ -3524,7 +3530,7 @@
       </c>
       <c r="B32" s="94"/>
       <c r="C32" s="95">
-        <v>70220.0</v>
+        <v>64618.0</v>
       </c>
       <c r="D32" s="95">
         <v>0.0</v>
@@ -3558,7 +3564,7 @@
       </c>
       <c r="B34" s="94"/>
       <c r="C34" s="95">
-        <v>165141.0</v>
+        <v>28130.0</v>
       </c>
       <c r="D34" s="95">
         <v>0.0</v>
@@ -3605,25 +3611,31 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
+      <c r="A2" s="99">
+        <v>44351.0</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>156</v>
+      </c>
       <c r="C2" s="101"/>
-      <c r="D2" s="100"/>
+      <c r="D2" s="100" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="99"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="100"/>
       <c r="C3" s="101"/>
       <c r="D3" s="100"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="99"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="100"/>
-      <c r="C4" s="102"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="100"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="103"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="104"/>
       <c r="C5" s="101"/>
       <c r="D5" s="105"/>
